--- a/final_data_pipeline/output/311225longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311225longform_elec_options.xlsx
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -611,10 +611,10 @@
         <v>675447.9473590076</v>
       </c>
       <c r="R3">
-        <v>1.005833333333333</v>
+        <v>1.016902460089711</v>
       </c>
       <c r="S3">
-        <v>1.034903846153846</v>
+        <v>1.046735940258763</v>
       </c>
       <c r="T3">
         <v>84.43099341987595</v>
